--- a/nr-update/ig/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/nr-update/ig/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-26T17:24:24+00:00</t>
+    <t>2025-01-21T08:42:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/nr-update/ig/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T08:42:48+00:00</t>
+    <t>2025-01-21T08:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
